--- a/biology/Biochimie/Base_de_données_des_enzymes/Base_de_données_des_enzymes.xlsx
+++ b/biology/Biochimie/Base_de_données_des_enzymes/Base_de_données_des_enzymes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Base_de_donn%C3%A9es_des_enzymes</t>
+          <t>Base_de_données_des_enzymes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une base de données des enzymes est une base de données qui permet de rechercher une enzyme par son nom (nomenclature EC), sa classe, sa description ou encore sa composition afin de faciliter la recherche et la communication. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Base_de_donn%C3%A9es_des_enzymes</t>
+          <t>Base_de_données_des_enzymes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Bases de données</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">BRENDA
 CAZy
